--- a/data_base/db.xlsx
+++ b/data_base/db.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f69e34da3c4bcbcf/PhD/data_base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2746" documentId="8_{B1A8EB05-7CC3-439F-BEF0-E160E4066DBD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3C526815-1DF2-4082-96D7-133E027EC943}"/>
+  <xr:revisionPtr revIDLastSave="2750" documentId="8_{B1A8EB05-7CC3-439F-BEF0-E160E4066DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B312274-2AF7-4763-A2DE-31A319AB662E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3E89D9CF-36B3-4CA1-9796-A00EE578FE36}"/>
   </bookViews>
@@ -1782,9 +1782,6 @@
     <t>Κιτίου</t>
   </si>
   <si>
-    <t>Μαχαίρας</t>
-  </si>
-  <si>
     <t>Α. 1</t>
   </si>
   <si>
@@ -2332,6 +2329,9 @@
   </si>
   <si>
     <t>άδηλος. μαθητής Αρσενίου ιερομονάχου</t>
+  </si>
+  <si>
+    <t>Μαχαιρά</t>
   </si>
 </sst>
 </file>
@@ -2705,8 +2705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398AA5F4-F1C0-4D3C-BF47-B62455C1A109}">
   <dimension ref="A1:H296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="D182" sqref="D182"/>
+    <sheetView tabSelected="1" topLeftCell="A216" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="B237" sqref="B237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2754,7 +2754,7 @@
         <v>232</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>155</v>
@@ -2780,7 +2780,7 @@
         <v>232</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>156</v>
@@ -2806,7 +2806,7 @@
         <v>232</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>157</v>
@@ -2832,7 +2832,7 @@
         <v>232</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>158</v>
@@ -2858,7 +2858,7 @@
         <v>232</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>159</v>
@@ -2884,7 +2884,7 @@
         <v>232</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>160</v>
@@ -2910,7 +2910,7 @@
         <v>232</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>161</v>
@@ -2936,7 +2936,7 @@
         <v>232</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>162</v>
@@ -2962,7 +2962,7 @@
         <v>232</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>163</v>
@@ -2988,7 +2988,7 @@
         <v>232</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>164</v>
@@ -3014,7 +3014,7 @@
         <v>232</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>165</v>
@@ -3040,7 +3040,7 @@
         <v>232</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>166</v>
@@ -3066,7 +3066,7 @@
         <v>232</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>167</v>
@@ -3092,7 +3092,7 @@
         <v>232</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>168</v>
@@ -3118,7 +3118,7 @@
         <v>232</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>169</v>
@@ -3144,7 +3144,7 @@
         <v>232</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>170</v>
@@ -3170,7 +3170,7 @@
         <v>232</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>171</v>
@@ -3196,7 +3196,7 @@
         <v>232</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>172</v>
@@ -3222,7 +3222,7 @@
         <v>232</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>173</v>
@@ -3248,7 +3248,7 @@
         <v>232</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>174</v>
@@ -3274,7 +3274,7 @@
         <v>232</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>175</v>
@@ -3300,7 +3300,7 @@
         <v>232</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>176</v>
@@ -3326,7 +3326,7 @@
         <v>232</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>177</v>
@@ -3352,7 +3352,7 @@
         <v>232</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>178</v>
@@ -3378,7 +3378,7 @@
         <v>232</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>169</v>
@@ -3404,7 +3404,7 @@
         <v>232</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>179</v>
@@ -3430,7 +3430,7 @@
         <v>232</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>180</v>
@@ -3456,7 +3456,7 @@
         <v>232</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>181</v>
@@ -3482,7 +3482,7 @@
         <v>233</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>235</v>
@@ -3500,7 +3500,7 @@
         <v>59</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -3508,7 +3508,7 @@
         <v>233</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>236</v>
@@ -3534,7 +3534,7 @@
         <v>233</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>237</v>
@@ -3560,7 +3560,7 @@
         <v>233</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>238</v>
@@ -3586,7 +3586,7 @@
         <v>233</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>239</v>
@@ -3612,7 +3612,7 @@
         <v>233</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>240</v>
@@ -4158,7 +4158,7 @@
         <v>233</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>267</v>
@@ -4184,7 +4184,7 @@
         <v>233</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>260</v>
@@ -4210,7 +4210,7 @@
         <v>5</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>302</v>
@@ -4236,7 +4236,7 @@
         <v>5</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>303</v>
@@ -4262,7 +4262,7 @@
         <v>5</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>304</v>
@@ -4274,7 +4274,7 @@
         <v>82</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>59</v>
@@ -4288,7 +4288,7 @@
         <v>5</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>305</v>
@@ -4314,7 +4314,7 @@
         <v>5</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>306</v>
@@ -4340,7 +4340,7 @@
         <v>5</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>307</v>
@@ -4366,7 +4366,7 @@
         <v>5</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>308</v>
@@ -4392,7 +4392,7 @@
         <v>5</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>309</v>
@@ -4418,7 +4418,7 @@
         <v>5</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>310</v>
@@ -4444,7 +4444,7 @@
         <v>5</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>311</v>
@@ -4462,7 +4462,7 @@
         <v>59</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -4470,7 +4470,7 @@
         <v>5</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>312</v>
@@ -4496,7 +4496,7 @@
         <v>5</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>313</v>
@@ -4522,7 +4522,7 @@
         <v>5</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>314</v>
@@ -4548,7 +4548,7 @@
         <v>5</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>315</v>
@@ -4574,7 +4574,7 @@
         <v>5</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>316</v>
@@ -4600,7 +4600,7 @@
         <v>5</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>317</v>
@@ -4626,7 +4626,7 @@
         <v>5</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>318</v>
@@ -4652,7 +4652,7 @@
         <v>5</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>314</v>
@@ -5389,7 +5389,7 @@
         <v>56</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>133</v>
@@ -6189,7 +6189,7 @@
         <v>7</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>147</v>
@@ -6212,7 +6212,7 @@
         <v>342</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>343</v>
@@ -6238,7 +6238,7 @@
         <v>342</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>344</v>
@@ -6264,7 +6264,7 @@
         <v>342</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>345</v>
@@ -6290,7 +6290,7 @@
         <v>342</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>346</v>
@@ -6316,7 +6316,7 @@
         <v>342</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>347</v>
@@ -6342,7 +6342,7 @@
         <v>342</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>348</v>
@@ -6368,7 +6368,7 @@
         <v>342</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>349</v>
@@ -6394,7 +6394,7 @@
         <v>342</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>350</v>
@@ -6420,7 +6420,7 @@
         <v>342</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>351</v>
@@ -6446,7 +6446,7 @@
         <v>342</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>352</v>
@@ -6472,7 +6472,7 @@
         <v>342</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>353</v>
@@ -6498,7 +6498,7 @@
         <v>342</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>354</v>
@@ -6524,7 +6524,7 @@
         <v>342</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>355</v>
@@ -6550,7 +6550,7 @@
         <v>342</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>356</v>
@@ -6576,7 +6576,7 @@
         <v>342</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>357</v>
@@ -6932,7 +6932,7 @@
         <v>207</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -7307,7 +7307,7 @@
         <v>437</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>442</v>
@@ -7657,7 +7657,7 @@
         <v>508</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H190" s="2" t="s">
         <v>58</v>
@@ -7801,7 +7801,7 @@
         <v>456</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>56</v>
@@ -7902,7 +7902,7 @@
         <v>455</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>478</v>
@@ -8726,7 +8726,7 @@
         <v>579</v>
       </c>
       <c r="H231" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
@@ -8752,7 +8752,7 @@
         <v>579</v>
       </c>
       <c r="H232" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
@@ -8786,10 +8786,10 @@
         <v>580</v>
       </c>
       <c r="B234" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="C234" s="2" t="s">
         <v>582</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>583</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>56</v>
@@ -8812,10 +8812,10 @@
         <v>580</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>582</v>
+        <v>765</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>56</v>
@@ -8838,10 +8838,10 @@
         <v>580</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>582</v>
+        <v>765</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>56</v>
@@ -8850,7 +8850,7 @@
         <v>61</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G236" s="2" t="s">
         <v>59</v>
@@ -8864,13 +8864,13 @@
         <v>580</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>582</v>
+        <v>765</v>
       </c>
       <c r="C237" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="D237" s="2" t="s">
         <v>585</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>586</v>
       </c>
       <c r="E237" s="2" t="s">
         <v>227</v>
@@ -8887,10 +8887,10 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>314</v>
@@ -8913,13 +8913,13 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>570</v>
@@ -8939,13 +8939,13 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>72</v>
@@ -8965,13 +8965,13 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>56</v>
@@ -8991,10 +8991,10 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>305</v>
@@ -9017,13 +9017,13 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>296</v>
@@ -9043,13 +9043,13 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D244" s="2" t="s">
         <v>56</v>
@@ -9069,13 +9069,13 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D245" s="2" t="s">
         <v>144</v>
@@ -9095,16 +9095,16 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E246" s="2" t="s">
         <v>287</v>
@@ -9121,13 +9121,13 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>72</v>
@@ -9147,16 +9147,16 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B248" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="B248" s="2" t="s">
+      <c r="C248" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="C248" s="2" t="s">
-        <v>603</v>
-      </c>
       <c r="D248" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E248" s="2" t="s">
         <v>82</v>
@@ -9173,22 +9173,22 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B249" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="B249" s="2" t="s">
-        <v>602</v>
-      </c>
       <c r="C249" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E249" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G249" s="2" t="s">
         <v>59</v>
@@ -9199,16 +9199,16 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B250" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="B250" s="2" t="s">
-        <v>602</v>
-      </c>
       <c r="C250" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E250" s="2" t="s">
         <v>449</v>
@@ -9217,7 +9217,7 @@
         <v>444</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H250" s="2" t="s">
         <v>58</v>
@@ -9225,22 +9225,22 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B251" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="B251" s="2" t="s">
-        <v>602</v>
-      </c>
       <c r="C251" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D251" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="F251" s="2" t="s">
         <v>620</v>
-      </c>
-      <c r="E251" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="F251" s="2" t="s">
-        <v>621</v>
       </c>
       <c r="G251" s="2" t="s">
         <v>59</v>
@@ -9251,22 +9251,22 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B252" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="B252" s="2" t="s">
-        <v>602</v>
-      </c>
       <c r="C252" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>72</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G252" s="2" t="s">
         <v>59</v>
@@ -9277,25 +9277,25 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B253" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="B253" s="2" t="s">
-        <v>602</v>
-      </c>
       <c r="C253" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D253" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="F253" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="E253" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="F253" s="2" t="s">
-        <v>616</v>
-      </c>
       <c r="G253" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H253" s="2" t="s">
         <v>58</v>
@@ -9303,16 +9303,16 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B254" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="B254" s="2" t="s">
-        <v>602</v>
-      </c>
       <c r="C254" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E254" s="2" t="s">
         <v>151</v>
@@ -9329,25 +9329,25 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B255" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="B255" s="2" t="s">
-        <v>602</v>
-      </c>
       <c r="C255" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="F255" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="D255" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="E255" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="F255" s="2" t="s">
+      <c r="G255" s="2" t="s">
         <v>609</v>
-      </c>
-      <c r="G255" s="2" t="s">
-        <v>610</v>
       </c>
       <c r="H255" s="2" t="s">
         <v>536</v>
@@ -9355,13 +9355,13 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="B256" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="B256" s="2" t="s">
+      <c r="C256" s="2" t="s">
         <v>629</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>630</v>
       </c>
       <c r="D256" s="2" t="s">
         <v>570</v>
@@ -9370,7 +9370,7 @@
         <v>109</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G256" s="2" t="s">
         <v>59</v>
@@ -9381,16 +9381,16 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B257" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="C257" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="C257" s="2" t="s">
-        <v>633</v>
-      </c>
       <c r="D257" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E257" s="2" t="s">
         <v>338</v>
@@ -9399,7 +9399,7 @@
         <v>329</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H257" s="2" t="s">
         <v>58</v>
@@ -9407,22 +9407,22 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C258" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="B258" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>635</v>
-      </c>
       <c r="D258" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G258" s="2" t="s">
         <v>59</v>
@@ -9433,103 +9433,103 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E259" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="F259" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="G259" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H259" s="2" t="s">
         <v>644</v>
-      </c>
-      <c r="F259" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="G259" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H259" s="2" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>235</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G260" s="2" t="s">
         <v>59</v>
       </c>
       <c r="H260" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D261" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="F261" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="E261" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="F261" s="2" t="s">
-        <v>647</v>
-      </c>
       <c r="G261" s="2" t="s">
         <v>59</v>
       </c>
       <c r="H261" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="B262" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="B262" s="2" t="s">
+      <c r="C262" s="2" t="s">
         <v>652</v>
-      </c>
-      <c r="C262" s="2" t="s">
-        <v>653</v>
       </c>
       <c r="D262" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E262" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="F262" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="G262" s="2" t="s">
         <v>655</v>
-      </c>
-      <c r="F262" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="G262" s="2" t="s">
-        <v>656</v>
       </c>
       <c r="H262" s="2" t="s">
         <v>58</v>
@@ -9537,13 +9537,13 @@
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B263" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="C263" s="2" t="s">
         <v>657</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>658</v>
       </c>
       <c r="D263" s="2" t="s">
         <v>56</v>
@@ -9563,13 +9563,13 @@
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D264" s="2" t="s">
         <v>56</v>
@@ -9589,16 +9589,16 @@
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B265" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="C265" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="C265" s="2" t="s">
-        <v>692</v>
-      </c>
       <c r="D265" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E265" s="2" t="s">
         <v>450</v>
@@ -9615,22 +9615,22 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="B266" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="B266" s="2" t="s">
+      <c r="C266" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="C266" s="2" t="s">
-        <v>665</v>
-      </c>
       <c r="D266" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="E266" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="F266" s="2" t="s">
         <v>672</v>
-      </c>
-      <c r="E266" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="F266" s="2" t="s">
-        <v>673</v>
       </c>
       <c r="G266" s="2" t="s">
         <v>59</v>
@@ -9641,13 +9641,13 @@
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="B267" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="B267" s="2" t="s">
-        <v>664</v>
-      </c>
       <c r="C267" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D267" s="2" t="s">
         <v>72</v>
@@ -9667,13 +9667,13 @@
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="B268" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="B268" s="2" t="s">
-        <v>664</v>
-      </c>
       <c r="C268" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D268" s="2" t="s">
         <v>72</v>
@@ -9693,13 +9693,13 @@
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="B269" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="B269" s="2" t="s">
-        <v>664</v>
-      </c>
       <c r="C269" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D269" s="2" t="s">
         <v>72</v>
@@ -9719,25 +9719,25 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="B270" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="B270" s="2" t="s">
-        <v>664</v>
-      </c>
       <c r="C270" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="D270" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="E270" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="F270" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="G270" s="2" t="s">
         <v>669</v>
-      </c>
-      <c r="D270" s="4" t="s">
-        <v>671</v>
-      </c>
-      <c r="E270" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="F270" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="G270" s="2" t="s">
-        <v>670</v>
       </c>
       <c r="H270" s="2" t="s">
         <v>58</v>
@@ -9745,16 +9745,16 @@
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="B271" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="B271" s="2" t="s">
-        <v>664</v>
-      </c>
       <c r="C271" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E271" s="2" t="s">
         <v>287</v>
@@ -9771,13 +9771,13 @@
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="B272" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="B272" s="2" t="s">
-        <v>664</v>
-      </c>
       <c r="C272" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D272" s="2" t="s">
         <v>540</v>
@@ -9797,16 +9797,16 @@
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="B273" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="B273" s="2" t="s">
-        <v>664</v>
-      </c>
       <c r="C273" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E273" s="2" t="s">
         <v>287</v>
@@ -9823,16 +9823,16 @@
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="B274" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="B274" s="2" t="s">
-        <v>664</v>
-      </c>
       <c r="C274" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E274" s="2" t="s">
         <v>287</v>
@@ -9849,16 +9849,16 @@
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="B275" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="B275" s="2" t="s">
-        <v>664</v>
-      </c>
       <c r="C275" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E275" s="2" t="s">
         <v>220</v>
@@ -9875,13 +9875,13 @@
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="B276" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="B276" s="2" t="s">
-        <v>664</v>
-      </c>
       <c r="C276" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D276" s="2" t="s">
         <v>540</v>
@@ -9901,16 +9901,16 @@
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="B277" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="B277" s="2" t="s">
-        <v>664</v>
-      </c>
       <c r="C277" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E277" s="2" t="s">
         <v>82</v>
@@ -9927,22 +9927,22 @@
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="B278" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="B278" s="2" t="s">
-        <v>664</v>
-      </c>
       <c r="C278" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E278" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G278" s="2" t="s">
         <v>59</v>
@@ -9953,13 +9953,13 @@
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B279" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="C279" s="2" t="s">
         <v>696</v>
-      </c>
-      <c r="C279" s="2" t="s">
-        <v>697</v>
       </c>
       <c r="D279" s="2" t="s">
         <v>56</v>
@@ -9968,13 +9968,13 @@
         <v>109</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G279" s="2" t="s">
         <v>58</v>
       </c>
       <c r="H279" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
@@ -9985,10 +9985,10 @@
         <v>7</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E280" s="2" t="s">
         <v>121</v>
@@ -10011,10 +10011,10 @@
         <v>7</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E281" s="2" t="s">
         <v>121</v>
@@ -10037,10 +10037,10 @@
         <v>7</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E282" s="2" t="s">
         <v>121</v>
@@ -10063,10 +10063,10 @@
         <v>7</v>
       </c>
       <c r="C283" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="D283" s="2" t="s">
         <v>702</v>
-      </c>
-      <c r="D283" s="2" t="s">
-        <v>703</v>
       </c>
       <c r="E283" s="2" t="s">
         <v>121</v>
@@ -10089,10 +10089,10 @@
         <v>530</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E284" s="2" t="s">
         <v>287</v>
@@ -10101,7 +10101,7 @@
         <v>279</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H284" s="2" t="s">
         <v>406</v>
@@ -10109,16 +10109,16 @@
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E285" s="2" t="s">
         <v>287</v>
@@ -10135,16 +10135,16 @@
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="B286" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="C286" s="5" t="s">
         <v>763</v>
       </c>
-      <c r="B286" s="5" t="s">
-        <v>652</v>
-      </c>
-      <c r="C286" s="5" t="s">
-        <v>764</v>
-      </c>
       <c r="D286" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E286" s="2" t="s">
         <v>287</v>
@@ -10164,22 +10164,22 @@
         <v>233</v>
       </c>
       <c r="B287" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="C287" s="5" t="s">
         <v>707</v>
       </c>
-      <c r="C287" s="5" t="s">
-        <v>708</v>
-      </c>
       <c r="D287" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H287" s="2" t="s">
         <v>406</v>
@@ -10187,16 +10187,16 @@
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B288" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="C288" s="5" t="s">
         <v>709</v>
       </c>
-      <c r="C288" s="5" t="s">
-        <v>710</v>
-      </c>
       <c r="D288" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E288" s="2" t="s">
         <v>287</v>
@@ -10213,13 +10213,13 @@
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B289" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="B289" s="2" t="s">
-        <v>718</v>
-      </c>
       <c r="C289" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D289" s="2" t="s">
         <v>57</v>
@@ -10239,13 +10239,13 @@
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B290" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="B290" s="2" t="s">
+      <c r="C290" s="2" t="s">
         <v>718</v>
-      </c>
-      <c r="C290" s="2" t="s">
-        <v>719</v>
       </c>
       <c r="D290" s="2" t="s">
         <v>72</v>
@@ -10257,7 +10257,7 @@
         <v>142</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H290" s="2" t="s">
         <v>58</v>
@@ -10265,42 +10265,42 @@
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B291" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="B291" s="2" t="s">
-        <v>718</v>
-      </c>
       <c r="C291" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D291" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G291" s="2" t="s">
         <v>59</v>
       </c>
       <c r="H291" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="C292" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="B292" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="C292" s="2" t="s">
-        <v>727</v>
-      </c>
       <c r="D292" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E292" s="2" t="s">
         <v>287</v>
@@ -10309,30 +10309,30 @@
         <v>279</v>
       </c>
       <c r="H292" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D293" s="2" t="s">
         <v>72</v>
       </c>
       <c r="E293" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="F293" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="F293" s="2" t="s">
-        <v>734</v>
-      </c>
       <c r="H293" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
@@ -10340,22 +10340,22 @@
         <v>406</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C294" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="D294" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="D294" s="2" t="s">
+      <c r="E294" s="2" t="s">
         <v>748</v>
       </c>
-      <c r="E294" s="2" t="s">
+      <c r="F294" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="G294" s="2" t="s">
         <v>749</v>
-      </c>
-      <c r="F294" s="2" t="s">
-        <v>755</v>
-      </c>
-      <c r="G294" s="2" t="s">
-        <v>750</v>
       </c>
       <c r="H294" s="2" t="s">
         <v>406</v>
@@ -10366,25 +10366,25 @@
         <v>572</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C295" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D295" s="2" t="s">
         <v>72</v>
       </c>
       <c r="E295" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="F295" s="2" t="s">
         <v>757</v>
       </c>
-      <c r="F295" s="2" t="s">
+      <c r="G295" s="2" t="s">
         <v>758</v>
       </c>
-      <c r="G295" s="2" t="s">
-        <v>759</v>
-      </c>
       <c r="H295" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
@@ -10395,7 +10395,7 @@
         <v>7</v>
       </c>
       <c r="C296" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D296" s="2" t="s">
         <v>56</v>
@@ -10410,7 +10410,7 @@
         <v>59</v>
       </c>
       <c r="H296" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
   </sheetData>
